--- a/Output_code/Data/Table_6a.xlsx
+++ b/Output_code/Data/Table_6a.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">ATT</t>
   </si>
@@ -56,6 +56,9 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
     <t xml:space="preserve">NoPatentsYearGUOtotal</t>
   </si>
   <si>
@@ -65,6 +68,12 @@
     <t xml:space="preserve">1_to_5</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relatedness_Cos2</t>
   </si>
   <si>
@@ -80,10 +89,10 @@
     <t xml:space="preserve">standard</t>
   </si>
   <si>
+    <t xml:space="preserve">***</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">***</t>
   </si>
 </sst>
 </file>
@@ -461,116 +470,122 @@
         <v>6.1297619047619</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0937792537125</v>
+        <v>12.1675647010961</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.4095049675952</v>
+        <v>-13.8858820285412</v>
       </c>
       <c r="D2" t="n">
-        <v>27.669028777119</v>
+        <v>26.145405838065</v>
       </c>
       <c r="E2" t="n">
-        <v>-19.5340454325146</v>
+        <v>-17.7186649093864</v>
       </c>
       <c r="F2" t="n">
-        <v>31.7935692420384</v>
+        <v>29.9781887189102</v>
       </c>
       <c r="G2" t="n">
-        <v>-27.5998134528015</v>
+        <v>-25.2138847652616</v>
       </c>
       <c r="H2" t="n">
-        <v>39.8593372623253</v>
+        <v>37.4734085747854</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2"/>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.392</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0477404048261</v>
+        <v>1.96032960002407</v>
       </c>
       <c r="C3" t="n">
-        <v>-21.361532965939</v>
+        <v>-3.00251996981738</v>
       </c>
       <c r="D3" t="n">
-        <v>28.145532965939</v>
+        <v>3.44696441426182</v>
       </c>
       <c r="E3" t="n">
-        <v>-26.1015711934592</v>
+        <v>-3.62002379382496</v>
       </c>
       <c r="F3" t="n">
-        <v>32.8855711934592</v>
+        <v>4.06446823826941</v>
       </c>
       <c r="G3" t="n">
-        <v>-35.3709792828321</v>
+        <v>-4.82758682743979</v>
       </c>
       <c r="H3" t="n">
-        <v>42.1549792828321</v>
+        <v>5.27203127188424</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.222222222222222</v>
+        <v>3.392</v>
       </c>
       <c r="B4" t="n">
-        <v>2.06466086725225</v>
+        <v>14.6455796110491</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.17414490440772</v>
+        <v>-20.6999784601758</v>
       </c>
       <c r="D4" t="n">
-        <v>3.61858934885217</v>
+        <v>27.4839784601758</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.82451307759218</v>
+        <v>-25.3133360376562</v>
       </c>
       <c r="F4" t="n">
-        <v>4.26895752203662</v>
+        <v>32.0973360376562</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.09634417181956</v>
+        <v>-34.3350130780625</v>
       </c>
       <c r="H4" t="n">
-        <v>5.54078861626401</v>
+        <v>41.1190130780625</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="J4"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -578,116 +593,122 @@
         <v>2.61071428571429</v>
       </c>
       <c r="B5" t="n">
-        <v>1.96427774283668</v>
+        <v>1.96565822704523</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.620522601252047</v>
+        <v>-0.622793497775123</v>
       </c>
       <c r="D5" t="n">
-        <v>5.84195117268062</v>
+        <v>5.84422206920369</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.2392700902456</v>
+        <v>-1.24197583929437</v>
       </c>
       <c r="F5" t="n">
-        <v>6.46069866167417</v>
+        <v>6.46340441072294</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.44926517983299</v>
+        <v>-2.45282130715424</v>
       </c>
       <c r="H5" t="n">
-        <v>7.67069375126156</v>
+        <v>7.67424987858281</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5"/>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.64533333333333</v>
+        <v>1.81111111111111</v>
       </c>
       <c r="B6" t="n">
-        <v>2.92224191939051</v>
+        <v>1.70938544674368</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.16175462406405</v>
+        <v>-1.00082794878224</v>
       </c>
       <c r="D6" t="n">
-        <v>7.45242129073072</v>
+        <v>4.62305017100447</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.08226082867206</v>
+        <v>-1.5392843645065</v>
       </c>
       <c r="F6" t="n">
-        <v>8.37292749533873</v>
+        <v>5.16150658672873</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.88236185101661</v>
+        <v>-2.59226579970061</v>
       </c>
       <c r="H6" t="n">
-        <v>10.1730285176833</v>
+        <v>6.21448802192283</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6"/>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.81111111111111</v>
+        <v>2.64533333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>1.85105632540088</v>
+        <v>2.78597430215186</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.23387654417334</v>
+        <v>-1.93759439370648</v>
       </c>
       <c r="D7" t="n">
-        <v>4.85609876639556</v>
+        <v>7.22826106037314</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.81695928667462</v>
+        <v>-2.81517629888431</v>
       </c>
       <c r="F7" t="n">
-        <v>5.43918150889684</v>
+        <v>8.10584296555098</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.95720998312156</v>
+        <v>-4.53133646900986</v>
       </c>
       <c r="H7" t="n">
-        <v>6.57943220534379</v>
+        <v>9.82200313567652</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -695,116 +716,122 @@
         <v>0.428846153846154</v>
       </c>
       <c r="B8" t="n">
-        <v>0.71321720184457</v>
+        <v>0.698972377274757</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.744396143188164</v>
+        <v>-0.720963406770821</v>
       </c>
       <c r="D8" t="n">
-        <v>1.60208845088047</v>
+        <v>1.57865571446313</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.969059561769203</v>
+        <v>-0.941139705612369</v>
       </c>
       <c r="F8" t="n">
-        <v>1.82675186946151</v>
+        <v>1.79883201330468</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.40840135810546</v>
+        <v>-1.37170669001362</v>
       </c>
       <c r="H8" t="n">
-        <v>2.26609366579777</v>
+        <v>2.22939899770593</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="J8"/>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.137254901960784</v>
+        <v>0.422222222222222</v>
       </c>
       <c r="B9" t="n">
-        <v>1.03685253189607</v>
+        <v>0.541058291099081</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.56836751300826</v>
+        <v>-0.467818666635766</v>
       </c>
       <c r="D9" t="n">
-        <v>1.84287731692983</v>
+        <v>1.31226311108021</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.89497606055552</v>
+        <v>-0.638252028331977</v>
       </c>
       <c r="F9" t="n">
-        <v>2.16948586447709</v>
+        <v>1.48269647277642</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.5336772202035</v>
+        <v>-0.971543935649011</v>
       </c>
       <c r="H9" t="n">
-        <v>2.80818702412507</v>
+        <v>1.81598838009346</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="J9"/>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.422222222222222</v>
+        <v>0.137254901960784</v>
       </c>
       <c r="B10" t="n">
-        <v>0.530808201687191</v>
+        <v>1.09339776068337</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.450957269553207</v>
+        <v>-1.66138441436336</v>
       </c>
       <c r="D10" t="n">
-        <v>1.29540171399765</v>
+        <v>1.93589421828493</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.618161853084672</v>
+        <v>-2.00580470897862</v>
       </c>
       <c r="F10" t="n">
-        <v>1.46260629752912</v>
+        <v>2.28031451290019</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.945139705323981</v>
+        <v>-2.67933772955958</v>
       </c>
       <c r="H10" t="n">
-        <v>1.78958414976843</v>
+        <v>2.95384753348115</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="J10"/>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -812,116 +839,122 @@
         <v>0.134615384615385</v>
       </c>
       <c r="B11" t="n">
-        <v>0.26022300773031</v>
+        <v>0.269434441632268</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.293451463100976</v>
+        <v>-0.308604271869696</v>
       </c>
       <c r="D11" t="n">
-        <v>0.562682232331745</v>
+        <v>0.577835041100466</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.375421710536023</v>
+        <v>-0.393476120983861</v>
       </c>
       <c r="F11" t="n">
-        <v>0.644652479766793</v>
+        <v>0.66270689021463</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.535719083297895</v>
+        <v>-0.559447737029338</v>
       </c>
       <c r="H11" t="n">
-        <v>0.804949852528664</v>
+        <v>0.828678506260107</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.149019607843137</v>
+        <v>-0.111111111111111</v>
       </c>
       <c r="B12" t="n">
-        <v>0.450971000074161</v>
+        <v>0.245269996641667</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.592827687278857</v>
+        <v>-0.514580255586654</v>
       </c>
       <c r="D12" t="n">
-        <v>0.890866902965132</v>
+        <v>0.292358033364432</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.734883552302218</v>
+        <v>-0.591840304528779</v>
       </c>
       <c r="F12" t="n">
-        <v>1.03292276798849</v>
+        <v>0.369618082306557</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.0126816883479</v>
+        <v>-0.742926622460046</v>
       </c>
       <c r="H12" t="n">
-        <v>1.31072090403418</v>
+        <v>0.520704400237824</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="J12"/>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.111111111111111</v>
+        <v>0.149019607843137</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2489307428602</v>
+        <v>0.353088472983895</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.52060218311614</v>
+        <v>-0.43181093021537</v>
       </c>
       <c r="D13" t="n">
-        <v>0.298379960893918</v>
+        <v>0.729850145901644</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.599015367117103</v>
+        <v>-0.543033799205296</v>
       </c>
       <c r="F13" t="n">
-        <v>0.37679314489488</v>
+        <v>0.841073014891571</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.752356704718986</v>
+        <v>-0.760536298563376</v>
       </c>
       <c r="H13" t="n">
-        <v>0.530134482496764</v>
+        <v>1.05857551424965</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="J13"/>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -929,116 +962,122 @@
         <v>0.417307692307692</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0413964665873</v>
+        <v>1.02842369717538</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.29578949522842</v>
+        <v>-1.2744492895458</v>
       </c>
       <c r="D14" t="n">
-        <v>2.1304048798438</v>
+        <v>2.10906467416119</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.62382938220342</v>
+        <v>-1.59840275415605</v>
       </c>
       <c r="F14" t="n">
-        <v>2.4584447668188</v>
+        <v>2.43301813877143</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.26532960562119</v>
+        <v>-2.23191175161608</v>
       </c>
       <c r="H14" t="n">
-        <v>3.09994499023658</v>
+        <v>3.06652713623146</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="J14"/>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.274509803921569</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="B15" t="n">
-        <v>1.49742254056679</v>
+        <v>1.08797377614781</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.73776988315393</v>
+        <v>-1.14527241731871</v>
       </c>
       <c r="D15" t="n">
-        <v>2.1887502753108</v>
+        <v>2.4341613062076</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.20945798343247</v>
+        <v>-1.48798415680527</v>
       </c>
       <c r="F15" t="n">
-        <v>2.66043837558934</v>
+        <v>2.77687304569416</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.13187026842161</v>
+        <v>-2.15817600291233</v>
       </c>
       <c r="H15" t="n">
-        <v>3.58285066057848</v>
+        <v>3.44706489180121</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.644444444444444</v>
+        <v>-0.274509803921569</v>
       </c>
       <c r="B16" t="n">
-        <v>1.07845583597963</v>
+        <v>1.5136108923567</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.12961540574205</v>
+        <v>-2.76439972184834</v>
       </c>
       <c r="D16" t="n">
-        <v>2.41850429463094</v>
+        <v>2.2153801140052</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.46932899407563</v>
+        <v>-3.2411871529407</v>
       </c>
       <c r="F16" t="n">
-        <v>2.75821788296452</v>
+        <v>2.69216754509756</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.13365778903908</v>
+        <v>-4.17357146263243</v>
       </c>
       <c r="H16" t="n">
-        <v>3.42254667792797</v>
+        <v>3.62455185478929</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="J16"/>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -1046,116 +1085,122 @@
         <v>0.0874179087320937</v>
       </c>
       <c r="B17" t="n">
-        <v>0.174044570702243</v>
+        <v>0.177048411669234</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.198885410073096</v>
+        <v>-0.203826728463796</v>
       </c>
       <c r="D17" t="n">
-        <v>0.373721227537283</v>
+        <v>0.378662545927983</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.253709449844302</v>
+        <v>-0.259596978139604</v>
       </c>
       <c r="F17" t="n">
-        <v>0.42854526730849</v>
+        <v>0.434432795603792</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.360920905396884</v>
+        <v>-0.368658799727852</v>
       </c>
       <c r="H17" t="n">
-        <v>0.535756722861071</v>
+        <v>0.54349461719204</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="J17"/>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.125850848613035</v>
+        <v>0.0798233487276249</v>
       </c>
       <c r="B18" t="n">
-        <v>0.155859088303087</v>
+        <v>0.0968011830204289</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.382239048871613</v>
+        <v>-0.0794145973409805</v>
       </c>
       <c r="D18" t="n">
-        <v>0.130537351645543</v>
+        <v>0.23906129479623</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.431334661687085</v>
+        <v>-0.109906969992416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.179632964461015</v>
+        <v>0.269553667447666</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.527343860081786</v>
+        <v>-0.169536498733</v>
       </c>
       <c r="H18" t="n">
-        <v>0.275642162855717</v>
+        <v>0.32918319618825</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
-      <c r="J18"/>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0798233487276249</v>
+        <v>-0.125850848613035</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0886079794418973</v>
+        <v>0.192796828728335</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0659367774542961</v>
+        <v>-0.443001631871147</v>
       </c>
       <c r="D19" t="n">
-        <v>0.225583474909546</v>
+        <v>0.191299934645077</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0938482909784937</v>
+        <v>-0.503732632920572</v>
       </c>
       <c r="F19" t="n">
-        <v>0.253494988433744</v>
+        <v>0.252030935694503</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.148430806314702</v>
+        <v>-0.622495479417227</v>
       </c>
       <c r="H19" t="n">
-        <v>0.308077503769952</v>
+        <v>0.370793782191157</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="J19"/>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -1163,116 +1208,122 @@
         <v>0.288548247955519</v>
       </c>
       <c r="B20" t="n">
-        <v>0.21227433948341</v>
+        <v>0.222105487076663</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0606430404946902</v>
+        <v>-0.0768152782855918</v>
       </c>
       <c r="D20" t="n">
-        <v>0.637739536405728</v>
+        <v>0.65391177419663</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.127509457431964</v>
+        <v>-0.146778506714741</v>
       </c>
       <c r="F20" t="n">
-        <v>0.704605953343002</v>
+        <v>0.723875002625779</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.258270450553745</v>
+        <v>-0.283595486753965</v>
       </c>
       <c r="H20" t="n">
-        <v>0.835366946464783</v>
+        <v>0.860691982665003</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
-      <c r="J20"/>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.694389450839204</v>
+        <v>-0.066314782019873</v>
       </c>
       <c r="B21" t="n">
-        <v>0.860989898826428</v>
+        <v>0.191903034928274</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.72193893273027</v>
+        <v>-0.381995274476883</v>
       </c>
       <c r="D21" t="n">
-        <v>2.11071783440868</v>
+        <v>0.249365710437137</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.993150750860594</v>
+        <v>-0.442444730479289</v>
       </c>
       <c r="F21" t="n">
-        <v>2.381929652539</v>
+        <v>0.309815166439543</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.52352052853767</v>
+        <v>-0.560656999995106</v>
       </c>
       <c r="H21" t="n">
-        <v>2.91229943021608</v>
+        <v>0.42802743595536</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
-      <c r="J21"/>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.066314782019873</v>
+        <v>0.694389450839204</v>
       </c>
       <c r="B22" t="n">
-        <v>0.202827306366315</v>
+        <v>0.873195951446534</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.399965700992462</v>
+        <v>-0.742017889290344</v>
       </c>
       <c r="D22" t="n">
-        <v>0.267336136952716</v>
+        <v>2.13079679096875</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.463856302497851</v>
+        <v>-1.017074613996</v>
       </c>
       <c r="F22" t="n">
-        <v>0.331226738458105</v>
+        <v>2.40585351567441</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.588797923219502</v>
+        <v>-1.55496332008707</v>
       </c>
       <c r="H22" t="n">
-        <v>0.456168359179756</v>
+        <v>2.94374222176547</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
-      <c r="J22"/>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1280,116 +1331,122 @@
         <v>0.0433189183868953</v>
       </c>
       <c r="B23" t="n">
-        <v>0.071147879525198</v>
+        <v>0.0732480878325276</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0737193434320555</v>
+        <v>-0.0771741860976126</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160357180205846</v>
+        <v>0.163812022871403</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0961309254824928</v>
+        <v>-0.100247333764859</v>
       </c>
       <c r="F23" t="n">
-        <v>0.182768762256283</v>
+        <v>0.186885170538649</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.139958019270015</v>
+        <v>-0.145368155869696</v>
       </c>
       <c r="H23" t="n">
-        <v>0.226595856043805</v>
+        <v>0.232005992643486</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
       </c>
-      <c r="J23"/>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.124700144284498</v>
+        <v>-0.162340517414077</v>
       </c>
       <c r="B24" t="n">
-        <v>0.104665373783004</v>
+        <v>0.109242714380421</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.296874684157539</v>
+        <v>-0.34204478256987</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0474743955885441</v>
+        <v>0.0173637477417163</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.329844276899186</v>
+        <v>-0.376456237599702</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0804439883301904</v>
+        <v>0.051775202771549</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.394318147149516</v>
+        <v>-0.443749749658042</v>
       </c>
       <c r="H24" t="n">
-        <v>0.144917858580521</v>
+        <v>0.119068714829889</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
-      <c r="J24"/>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.162340517414077</v>
+        <v>-0.124700144284498</v>
       </c>
       <c r="B25" t="n">
-        <v>0.104273956776677</v>
+        <v>0.105885507536163</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.33387117631171</v>
+        <v>-0.298881804181486</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00919014148355657</v>
+        <v>0.0494815156124907</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.366717472696363</v>
+        <v>-0.332235739055377</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0420364378682097</v>
+        <v>0.0828354504863821</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.430950230070796</v>
+        <v>-0.397461211697654</v>
       </c>
       <c r="H25" t="n">
-        <v>0.106269195242643</v>
+        <v>0.148060923128659</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
-      <c r="J25"/>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1397,116 +1454,122 @@
         <v>0.0816837195812904</v>
       </c>
       <c r="B26" t="n">
-        <v>0.170278199470154</v>
+        <v>0.169945494899091</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.198423918547113</v>
+        <v>-0.197876619527714</v>
       </c>
       <c r="D26" t="n">
-        <v>0.361791357709694</v>
+        <v>0.361244058690295</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.252061551380211</v>
+        <v>-0.251409450420927</v>
       </c>
       <c r="F26" t="n">
-        <v>0.415428990542792</v>
+        <v>0.414776889583508</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.356952922253826</v>
+        <v>-0.356095875278767</v>
       </c>
       <c r="H26" t="n">
-        <v>0.520320361416407</v>
+        <v>0.519463314441348</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
-      <c r="J26"/>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.0142612241862417</v>
+        <v>-0.358273643167695</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00845748904685109</v>
+        <v>0.133581340889987</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0281737936683118</v>
+        <v>-0.578014948931724</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.000348654704171681</v>
+        <v>-0.138532337403666</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0308379027180699</v>
+        <v>-0.620093071312069</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00231545434558641</v>
+        <v>-0.0964542150233205</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0360477159709301</v>
+        <v>-0.702379177300302</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00752526759844669</v>
+        <v>-0.0141681090350885</v>
       </c>
       <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
         <v>22</v>
       </c>
-      <c r="J27"/>
-      <c r="K27" t="s">
-        <v>19</v>
-      </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.358273643167695</v>
+        <v>-0.0142612241862417</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138663665326474</v>
+        <v>0.00845748904685109</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.586375372629745</v>
+        <v>-0.0281737936683118</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.130171913705645</v>
+        <v>-0.00034865470417169</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.630054427207585</v>
+        <v>-0.0308379027180699</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0864928591278054</v>
+        <v>0.0023154543455864</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.715471245048693</v>
+        <v>-0.0360477159709301</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.00107604128669714</v>
+        <v>0.00752526759844667</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28"/>
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1514,116 +1577,122 @@
         <v>0.0274158711981779</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06845842808791</v>
+        <v>0.0651465974564892</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0851982430064341</v>
+        <v>-0.0797502816177469</v>
       </c>
       <c r="D29" t="n">
-        <v>0.14002998540279</v>
+        <v>0.134582024014103</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.106762647854126</v>
+        <v>-0.100271459816541</v>
       </c>
       <c r="F29" t="n">
-        <v>0.161594390250482</v>
+        <v>0.155103202212897</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.148933039556278</v>
+        <v>-0.140401763849738</v>
       </c>
       <c r="H29" t="n">
-        <v>0.203764781952634</v>
+        <v>0.195233506246094</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
       </c>
-      <c r="J29"/>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.119661227472321</v>
+        <v>-0.0972932405594713</v>
       </c>
       <c r="B30" t="n">
-        <v>0.140332906138694</v>
+        <v>0.0619276142430541</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.11118640312583</v>
+        <v>-0.199164165989295</v>
       </c>
       <c r="D30" t="n">
-        <v>0.350508858070472</v>
+        <v>0.00457768487035268</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.155391268559519</v>
+        <v>-0.218671364475857</v>
       </c>
       <c r="F30" t="n">
-        <v>0.39471372350416</v>
+        <v>0.0240848833569147</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.241836338740954</v>
+        <v>-0.256818774849579</v>
       </c>
       <c r="H30" t="n">
-        <v>0.481158793685595</v>
+        <v>0.062232293730636</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
       </c>
-      <c r="J30"/>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
       <c r="K30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.0972932405594713</v>
+        <v>0.119661227472321</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0642769167560683</v>
+        <v>0.140143857852239</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.203028768623204</v>
+        <v>-0.110875418694613</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00844228750426103</v>
+        <v>0.350197873639254</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.223275997401365</v>
+        <v>-0.155020733918068</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0286895162824226</v>
+        <v>0.394343188862709</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.262870578123103</v>
+        <v>-0.241349350355048</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0682840970041606</v>
+        <v>0.480671805299689</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
-      <c r="J31"/>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
